--- a/titanic.xlsx
+++ b/titanic.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1206,24 +1206,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1233,14 +1233,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1262,36 +1262,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1308,7 +1308,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1325,7 +1325,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1342,7 +1342,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1359,7 +1359,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1369,14 +1369,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1386,14 +1386,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1410,7 +1410,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1427,7 +1427,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1437,14 +1437,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1454,14 +1454,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1471,14 +1471,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1495,7 +1495,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1505,14 +1505,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1534,36 +1534,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1580,7 +1580,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1597,7 +1597,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1614,7 +1614,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1631,7 +1631,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1641,14 +1641,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1682,7 +1682,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1699,7 +1699,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1709,14 +1709,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1760,14 +1760,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1794,14 +1794,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1811,14 +1811,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1827,6 +1827,23 @@
         </is>
       </c>
       <c r="C83" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>64</t>
         </is>
